--- a/SculptPrint4Terrain.xlsx
+++ b/SculptPrint4Terrain.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Terrain token fuckery" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Break" vbProcedure="false">#REF!</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -56,6 +57,12 @@
     <t xml:space="preserve">Body HTML</t>
   </si>
   <si>
+    <t xml:space="preserve">Big text extra step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Templates</t>
+  </si>
+  <si>
     <t xml:space="preserve">Walls</t>
   </si>
   <si>
@@ -68,52 +75,58 @@
     <t xml:space="preserve">Shape = Up to 5 x Hex1a</t>
   </si>
   <si>
-    <t xml:space="preserve">Walls can’t be climbed</t>
+    <t xml:space="preserve">Walls cannot be climbed.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p style="font-size:14px;"&gt;&lt;br&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape = 3 x Hex1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roots can be climbed for 1 AP or jazzT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roots block line of sight, but do not block movement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roots are flammable.</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;p style="font-size:12px;"&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape = 3 x Hex1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trees can be climbed for 1 AP or jazzT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trees block line of sight, but do not block movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trees are flammable</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tunnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Shape = Up to 5 connected hexes, always 1 hex wide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The tunnel allows for normal movement</t>
+    <t xml:space="preserve">Shape = Up to 5 connected hexes, always 1 hex wide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tunnel allows for normal movement.</t>
   </si>
   <si>
     <t xml:space="preserve">This can be placed through any solid structure, including map walls.</t>
   </si>
   <si>
+    <t xml:space="preserve"> &lt;span style="color:#27ae60"&gt;&lt;strong&gt;Jazz&lt;/strong&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fortified Gate</t>
   </si>
   <si>
-    <t xml:space="preserve">Shape = 1 gate, then up to 2 Hex1a wall hexes adjacent to the gate&lt;br&gt;GateHex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locked: The Gate can be opened using the Imbued status effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walls block movement and line of sight, and can’t be climbed</t>
+    <t xml:space="preserve">Shape = 1 Gate hex, then up to 2 Wall hexes adjacent to the gate.&lt;br&gt;GateHex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Locked:&lt;/b&gt; The Gate can be opened using the Imbued status effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walls block movement and line of sight, and cannot be climbed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:#e74c3c"&gt;&lt;strong&gt;Flesh&lt;/strong&gt;&lt;/span&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Rubble</t>
@@ -122,40 +135,34 @@
     <t xml:space="preserve">Shape = Hex3</t>
   </si>
   <si>
-    <t xml:space="preserve">Each rubble hex takes 2 hexes of movement to enter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;span style="color:#27ae60"&gt;&lt;strong&gt;Jazz&lt;/strong&gt;&lt;/span&gt;</t>
+    <t xml:space="preserve">Each rubble hex takes 2 hexes of movement to enter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;span style="color:#3366cc"&gt;&lt;strong&gt;Weird&lt;/strong&gt;&lt;/span&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Giant Lichen</t>
   </si>
   <si>
-    <t xml:space="preserve">Lichen blocks line of sight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire will burn all connected lichen hexes, dealing 2 Armour Piercing damage and inflicting the Burning status to anyone any being in the lichen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burning lichen is destroyed at the end of the bosses turn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;span style="color:#e74c3c"&gt;&lt;strong&gt;Flesh&lt;/strong&gt;&lt;/span&gt;</t>
+    <t xml:space="preserve">Lichen blocks line of sight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire will burn all connected lichen hexes, dealing 2 Armour Piercing damage and inflicting the Burning status to anyone any being in the lichen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burning lichen is destroyed at the end of the bosses turn.</t>
   </si>
   <si>
     <t xml:space="preserve">River</t>
   </si>
   <si>
-    <t xml:space="preserve">Shape = A 2 hex wide river running from one wall to another, with a current direction, a source, and lethal waterfall at the end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moving in the river costs double movement unless it’s in the flow direction which costs half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you end your turn in the river, move 5 hexes in the flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;span style="color:#3366cc"&gt;&lt;strong&gt;Weird&lt;/strong&gt;&lt;/span&gt;</t>
+    <t xml:space="preserve">Shape = A 2 hex wide river running from one wall to another, with a current direction, a source, and lethal waterfall at the end.&lt;br&gt;RiverHex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving in the river costs double movement unless it is in the flow direction which costs half.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you end your turn in the river, move 5 hexes in the flow.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Coals</t>
@@ -164,22 +171,22 @@
     <t xml:space="preserve">Shape = 5 Connected hexes</t>
   </si>
   <si>
-    <t xml:space="preserve">If a creature starts their turn on hot coals, they take 3 damage</t>
+    <t xml:space="preserve">If a creature starts their turn on hot coals, they take 3 damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Cliff</t>
   </si>
   <si>
-    <t xml:space="preserve">Shape = A continuous line between two walls, with a high side and a low side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beings may Climb for 3AP or jazzt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a being falls of the cliff they take 8 damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cliff blocks line of sight for anyone on the low side except on the cliff edge</t>
+    <t xml:space="preserve">Shape = A continuous line between two walls, with a high side and a low side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beings may Climb for 3AP or jazzt .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a being falls of the cliff they take 8 damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cliff blocks line of sight for anyone on the low side except on the cliff edge.</t>
   </si>
   <si>
     <t xml:space="preserve">Whisky Barrel</t>
@@ -188,10 +195,10 @@
     <t xml:space="preserve">Shape = Hex1a</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Drink: 1AP&lt;/b&gt;&lt;br&gt; Become monstrous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire will cause the barrel to explode, dealing 8 damage to everything in a 2 hex radius &lt;br&gt; whiskey_Xplo</t>
+    <t xml:space="preserve">&lt;b&gt;Drink:&lt;/b&gt; 1AP&lt;br&gt; Become monstrous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire will cause the barrel to explode, dealing 8 damage to everything in a 2 hex radius. &lt;br&gt; whiskey_Xplo</t>
   </si>
   <si>
     <t xml:space="preserve">Pillar</t>
@@ -200,7 +207,10 @@
     <t xml:space="preserve">Shape = Hex1b x 3</t>
   </si>
   <si>
-    <t xml:space="preserve">The pillar blocks line of sight for anyone on the low side</t>
+    <t xml:space="preserve">Beings may Climb for 3AP or jazzt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pillar blocks line of sight for anyone on the low side.</t>
   </si>
   <si>
     <t xml:space="preserve">Fixed Arbalest</t>
@@ -209,25 +219,25 @@
     <t xml:space="preserve">Terrain – Boon</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;i&gt;Ranged attack- &lt;/i&gt;&lt;b&gt;Fire!:3AP&lt;/b&gt;&lt;br&gt; The arbalest is must be loaded.&lt;br&gt; Damage = 8. &lt;br&gt;Hits everyone in a line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Reload&lt;/b&gt; - 3AP + flesht flesht: reload the arbalest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starts loaded</t>
+    <t xml:space="preserve">&lt;i&gt;Ranged Attack - &lt;/i&gt;&lt;b&gt;Fire!:&lt;/b&gt; 3AP&lt;br&gt;The arbalest must be loaded. &lt;br&gt;Damage = 8. &lt;br&gt;Hits everyone in a line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Reload&lt;/b&gt; - 3AP + flesht flesht: &lt;Br&gt;Reload the arbalest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts loaded.</t>
   </si>
   <si>
     <t xml:space="preserve">Campfire</t>
   </si>
   <si>
-    <t xml:space="preserve">Ending your turn next to the campfire restores all composure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a being steps on the campfire they take 6 Armour Piercing damage and suffer the burning status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Rest: 4AP&lt;/b&gt;&lt;br&gt;Gain the well rested status effect</t>
+    <t xml:space="preserve">Ending your turn next to the campfire restores all composure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a being steps on the campfire they take 6 Armour Piercing damage and suffer the burning status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Rest:&lt;/b&gt;  4AP&lt;br&gt;Gain the well rested status effect.</t>
   </si>
   <si>
     <t xml:space="preserve">Mud Pit</t>
@@ -236,16 +246,100 @@
     <t xml:space="preserve">Shape = Hex1b</t>
   </si>
   <si>
-    <t xml:space="preserve">Spend 1 fleshT or 1AP to move through 1 hex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Rummage: 1AP + fleshT fleshT&lt;/b&gt;&lt;br&gt; gain 1 limb or impression. This can only be done once</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Spend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1AP or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fleshT to move through 1 hex.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Rummage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1AP + fleshT fleshT&lt;br&gt;Gain 1 limb or impression. This can only be done once.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Quartz Sphere</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Ponder: 1AP + weirdT weirdT &lt;/b&gt;&lt;br&gt;Gain the portent status</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Ponder:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1AP + weirdT weirdT&lt;br&gt;Gain the portent status.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Portal</t>
@@ -254,49 +348,194 @@
     <t xml:space="preserve">Shape = Hex1a x 2</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Jump: weirdT&lt;/b&gt;&lt;br&gt; Teleport to any unoccupied portal hex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sculptor’s wheel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Locked:&lt;/b&gt; This can be opened using the imbued status effect to look at 3 limbs or impressions and equip any number of them</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Jump:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> weirdT&lt;br&gt;Teleport to any unoccupied portal hex.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sculpting wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Locked:&lt;/b&gt; This can be opened using the imbued status effect to look at 3 limbs or impressions and equip any number of them.</t>
   </si>
   <si>
     <t xml:space="preserve">Fountain of life</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Drink: 3AP&lt;/b&gt; Restore 2 wounds and empty the fountain. It can’t be used again</t>
+    <t xml:space="preserve">&lt;b&gt;Drink:&lt;/b&gt; 3AP&lt;br&gt;Restore 2 wounds and empty the fountain. It cannot be used again.</t>
   </si>
   <si>
     <t xml:space="preserve">Weird Fossil</t>
   </si>
   <si>
-    <t xml:space="preserve">Each hex may be &lt;br&gt;&lt;b&gt;Excavated: 3AP or 1 weirdT and 1AP&lt;/b&gt;&lt;br&gt; Replenish a spent charge token on a card and destroy that hex</t>
+    <t xml:space="preserve">Each hex may be &lt;br&gt;&lt;b&gt;Excavated:&lt;/b&gt; 3AP or 1 weirdT + 1AP&lt;br&gt;Replenish a spent charge token on a card and destroy that hex.</t>
   </si>
   <si>
     <t xml:space="preserve">Stained Stalagmite</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Sacrifice: 1AP + a wound to a stat of your choice&lt;/b&gt;&lt;br&gt; Draw an impression. You may equip it.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Sacrifice:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1AP + a wound to a stat of your choice&lt;br&gt;Draw an impression. You may equip it.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Pure Clay</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Imbibe: 2AP + 1 weirdT&lt;/b&gt;&lt;br&gt; Destroy this and gain the Imbued status</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Imbibe:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2AP + 1 weirdT&lt;br&gt;Destroy this and gain the Imbued status.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Cave Paintings</t>
   </si>
   <si>
-    <t xml:space="preserve">Shape = 3 x Hex1a paintings that are at least 3 hexes apart from each other. Cavepaint1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Study: 1AP&lt;/b&gt;&lt;br&gt; Permanently gain a +1 damage bonus against the boss </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each player can only study each painting once</t>
+    <t xml:space="preserve">Shape = 3 x Hex1a paintings that are at least 3 hexes apart from each other.&lt;br&gt;Cavepaint1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Study:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1AP&lt;br&gt;Permanently gain a +1 damage bonus against the boss .</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Each player can only study each painting once.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavepaint1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavepaint2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gatehex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HornsHex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whisky_Xplo</t>
   </si>
 </sst>
 </file>
@@ -306,7 +545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +581,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -831,10 +1076,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,7 +1092,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="54.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="23.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,572 +1126,669 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="9" t="str">
-        <f aca="false">IF(C2="yes",_xlfn.CONCAT($N$2,E2,IF(F2="","","&lt;img src=Images\line.png&gt;"),F2,IF(G2="","","&lt;img src=Images\line.png&gt;"),G2,IF(H2="","","&lt;img src=Images\line.png&gt;"),H2,),_xlfn.CONCAT($M$2,E2,IF(F2="","","&lt;img src=Images\line.png&gt;"),F2,IF(G2="","","&lt;img src=Images\line.png&gt;"),G2,IF(H2="","","&lt;img src=Images\line.png&gt;"),H2,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Up to 5 x Hex1a&lt;img src=Images\line.png&gt;Walls can’t be climbed</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E2,IF(F2="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F2,IF(G2="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G2,IF(H2="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H2,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Up to 5 x Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;Walls cannot be climbed.</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f aca="false">IF(C2="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="9" t="str">
-        <f aca="false">IF(C3="yes",_xlfn.CONCAT($N$2,E3,IF(F3="","","&lt;img src=Images\line.png&gt;"),F3,IF(G3="","","&lt;img src=Images\line.png&gt;"),G3,IF(H3="","","&lt;img src=Images\line.png&gt;"),H3,),_xlfn.CONCAT($M$2,E3,IF(F3="","","&lt;img src=Images\line.png&gt;"),F3,IF(G3="","","&lt;img src=Images\line.png&gt;"),G3,IF(H3="","","&lt;img src=Images\line.png&gt;"),H3,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = 3 x Hex1a&lt;img src=Images\line.png&gt;Trees can be climbed for 1 AP or jazzT&lt;img src=Images\line.png&gt;Trees block line of sight, but do not block movement&lt;img src=Images\line.png&gt;Trees are flammable</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E3,IF(F3="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F3,IF(G3="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G3,IF(H3="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H3,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = 3 x Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;Roots can be climbed for 1 AP or jazzT.&lt;Br&gt;lineBrk&lt;Br&gt;Roots block line of sight, but do not block movement.&lt;Br&gt;lineBrk&lt;Br&gt;Roots are flammable.</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f aca="false">IF(C3="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9" t="str">
-        <f aca="false">IF(C4="yes",_xlfn.CONCAT($N$2,E4,IF(F4="","","&lt;img src=Images\line.png&gt;"),F4,IF(G4="","","&lt;img src=Images\line.png&gt;"),G4,IF(H4="","","&lt;img src=Images\line.png&gt;"),H4,),_xlfn.CONCAT($M$2,E4,IF(F4="","","&lt;img src=Images\line.png&gt;"),F4,IF(G4="","","&lt;img src=Images\line.png&gt;"),G4,IF(H4="","","&lt;img src=Images\line.png&gt;"),H4,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Up to 5 connected hexes, always 1 hex wide&lt;img src=Images\line.png&gt;The tunnel allows for normal movement&lt;img src=Images\line.png&gt;This can be placed through any solid structure, including map walls.</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E4,IF(F4="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F4,IF(G4="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G4,IF(H4="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H4,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Up to 5 connected hexes, always 1 hex wide.&lt;Br&gt;lineBrk&lt;Br&gt;The tunnel allows for normal movement.&lt;Br&gt;lineBrk&lt;Br&gt;This can be placed through any solid structure, including map walls.</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f aca="false">IF(C4="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="9" t="str">
-        <f aca="false">IF(C5="yes",_xlfn.CONCAT($N$2,E5,IF(F5="","","&lt;img src=Images\line.png&gt;"),F5,IF(G5="","","&lt;img src=Images\line.png&gt;"),G5,IF(H5="","","&lt;img src=Images\line.png&gt;"),H5,),_xlfn.CONCAT($M$2,E5,IF(F5="","","&lt;img src=Images\line.png&gt;"),F5,IF(G5="","","&lt;img src=Images\line.png&gt;"),G5,IF(H5="","","&lt;img src=Images\line.png&gt;"),H5,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = 1 gate, then up to 2 Hex1a wall hexes adjacent to the gate&lt;br&gt;GateHex&lt;img src=Images\line.png&gt;Locked: The Gate can be opened using the Imbued status effect&lt;img src=Images\line.png&gt;Walls block movement and line of sight, and can’t be climbed</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.CONCAT($K$2,E5,IF(F5="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F5,IF(G5="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G5,IF(H5="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H5,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = 1 Gate hex, then up to 2 Wall hexes adjacent to the gate.&lt;br&gt;GateHex&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Locked:&lt;/b&gt; The Gate can be opened using the Imbued status effect.&lt;Br&gt;lineBrk&lt;Br&gt;Walls block movement and line of sight, and cannot be climbed.</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f aca="false">IF(C5="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9" t="str">
-        <f aca="false">IF(C6="yes",_xlfn.CONCAT($N$2,E6,IF(F6="","","&lt;img src=Images\line.png&gt;"),F6,IF(G6="","","&lt;img src=Images\line.png&gt;"),G6,IF(H6="","","&lt;img src=Images\line.png&gt;"),H6,),_xlfn.CONCAT($M$2,E6,IF(F6="","","&lt;img src=Images\line.png&gt;"),F6,IF(G6="","","&lt;img src=Images\line.png&gt;"),G6,IF(H6="","","&lt;img src=Images\line.png&gt;"),H6,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex3&lt;img src=Images\line.png&gt;Each rubble hex takes 2 hexes of movement to enter</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E6,IF(F6="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F6,IF(G6="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G6,IF(H6="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H6,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex3&lt;Br&gt;lineBrk&lt;Br&gt;Each rubble hex takes 2 hexes of movement to enter.</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f aca="false">IF(C6="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="77.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="9" t="str">
-        <f aca="false">IF(C7="yes",_xlfn.CONCAT($N$2,E7,IF(F7="","","&lt;img src=Images\line.png&gt;"),F7,IF(G7="","","&lt;img src=Images\line.png&gt;"),G7,IF(H7="","","&lt;img src=Images\line.png&gt;"),H7,),_xlfn.CONCAT($M$2,E7,IF(F7="","","&lt;img src=Images\line.png&gt;"),F7,IF(G7="","","&lt;img src=Images\line.png&gt;"),G7,IF(H7="","","&lt;img src=Images\line.png&gt;"),H7,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex3&lt;img src=Images\line.png&gt;Lichen blocks line of sight&lt;img src=Images\line.png&gt;Fire will burn all connected lichen hexes, dealing 2 Armour Piercing damage and inflicting the Burning status to anyone any being in the lichen &lt;img src=Images\line.png&gt;Burning lichen is destroyed at the end of the bosses turn</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E7,IF(F7="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F7,IF(G7="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G7,IF(H7="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H7,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex3&lt;Br&gt;lineBrk&lt;Br&gt;Lichen blocks line of sight.&lt;Br&gt;lineBrk&lt;Br&gt;Fire will burn all connected lichen hexes, dealing 2 Armour Piercing damage and inflicting the Burning status to anyone any being in the lichen.&lt;Br&gt;lineBrk&lt;Br&gt;Burning lichen is destroyed at the end of the bosses turn.</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f aca="false">IF(C7="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="66.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="9" t="str">
-        <f aca="false">IF(C8="yes",_xlfn.CONCAT($N$2,E8,IF(F8="","","&lt;img src=Images\line.png&gt;"),F8,IF(G8="","","&lt;img src=Images\line.png&gt;"),G8,IF(H8="","","&lt;img src=Images\line.png&gt;"),H8,),_xlfn.CONCAT($M$2,E8,IF(F8="","","&lt;img src=Images\line.png&gt;"),F8,IF(G8="","","&lt;img src=Images\line.png&gt;"),G8,IF(H8="","","&lt;img src=Images\line.png&gt;"),H8,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = A 2 hex wide river running from one wall to another, with a current direction, a source, and lethal waterfall at the end&lt;img src=Images\line.png&gt;Moving in the river costs double movement unless it’s in the flow direction which costs half&lt;img src=Images\line.png&gt;If you end your turn in the river, move 5 hexes in the flow</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>43</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E8,IF(F8="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F8,IF(G8="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G8,IF(H8="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H8,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = A 2 hex wide river running from one wall to another, with a current direction, a source, and lethal waterfall at the end.&lt;br&gt;RiverHex&lt;Br&gt;lineBrk&lt;Br&gt;Moving in the river costs double movement unless it is in the flow direction which costs half.&lt;Br&gt;lineBrk&lt;Br&gt;If you end your turn in the river, move 5 hexes in the flow.</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f aca="false">IF(C8="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9" t="str">
-        <f aca="false">IF(C9="yes",_xlfn.CONCAT($N$2,E9,IF(F9="","","&lt;img src=Images\line.png&gt;"),F9,IF(G9="","","&lt;img src=Images\line.png&gt;"),G9,IF(H9="","","&lt;img src=Images\line.png&gt;"),H9,),_xlfn.CONCAT($M$2,E9,IF(F9="","","&lt;img src=Images\line.png&gt;"),F9,IF(G9="","","&lt;img src=Images\line.png&gt;"),G9,IF(H9="","","&lt;img src=Images\line.png&gt;"),H9,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = 5 Connected hexes&lt;img src=Images\line.png&gt;If a creature starts their turn on hot coals, they take 3 damage</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E9,IF(F9="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F9,IF(G9="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G9,IF(H9="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H9,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = 5 Connected hexes&lt;Br&gt;lineBrk&lt;Br&gt;If a creature starts their turn on hot coals, they take 3 damage.</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f aca="false">IF(C9="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="77.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="9" t="str">
-        <f aca="false">IF(C10="yes",_xlfn.CONCAT($N$2,E10,IF(F10="","","&lt;img src=Images\line.png&gt;"),F10,IF(G10="","","&lt;img src=Images\line.png&gt;"),G10,IF(H10="","","&lt;img src=Images\line.png&gt;"),H10,),_xlfn.CONCAT($M$2,E10,IF(F10="","","&lt;img src=Images\line.png&gt;"),F10,IF(G10="","","&lt;img src=Images\line.png&gt;"),G10,IF(H10="","","&lt;img src=Images\line.png&gt;"),H10,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = A continuous line between two walls, with a high side and a low side&lt;img src=Images\line.png&gt;Beings may Climb for 3AP or jazzt &lt;img src=Images\line.png&gt;If a being falls of the cliff they take 8 damage&lt;img src=Images\line.png&gt;The cliff blocks line of sight for anyone on the low side except on the cliff edge</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E10,IF(F10="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F10,IF(G10="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G10,IF(H10="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H10,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = A continuous line between two walls, with a high side and a low side.&lt;Br&gt;lineBrk&lt;Br&gt;Beings may Climb for 3AP or jazzt .&lt;Br&gt;lineBrk&lt;Br&gt;If a being falls of the cliff they take 8 damage.&lt;Br&gt;lineBrk&lt;Br&gt;The cliff blocks line of sight for anyone on the low side except on the cliff edge.</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f aca="false">IF(C10="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="9" t="str">
-        <f aca="false">IF(C11="yes",_xlfn.CONCAT($N$2,E11,IF(F11="","","&lt;img src=Images\line.png&gt;"),F11,IF(G11="","","&lt;img src=Images\line.png&gt;"),G11,IF(H11="","","&lt;img src=Images\line.png&gt;"),H11,),_xlfn.CONCAT($M$2,E11,IF(F11="","","&lt;img src=Images\line.png&gt;"),F11,IF(G11="","","&lt;img src=Images\line.png&gt;"),G11,IF(H11="","","&lt;img src=Images\line.png&gt;"),H11,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;img src=Images\line.png&gt;&lt;b&gt;Drink: 1AP&lt;/b&gt;&lt;br&gt; Become monstrous&lt;img src=Images\line.png&gt;Fire will cause the barrel to explode, dealing 8 damage to everything in a 2 hex radius &lt;br&gt; whiskey_Xplo</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E11,IF(F11="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F11,IF(G11="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G11,IF(H11="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H11,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Drink:&lt;/b&gt; 1AP&lt;br&gt; Become monstrous.&lt;Br&gt;lineBrk&lt;Br&gt;Fire will cause the barrel to explode, dealing 8 damage to everything in a 2 hex radius. &lt;br&gt; whiskey_Xplo</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f aca="false">IF(C11="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="9" t="str">
-        <f aca="false">IF(C12="yes",_xlfn.CONCAT($N$2,E12,IF(F12="","","&lt;img src=Images\line.png&gt;"),F12,IF(G12="","","&lt;img src=Images\line.png&gt;"),G12,IF(H12="","","&lt;img src=Images\line.png&gt;"),H12,),_xlfn.CONCAT($M$2,E12,IF(F12="","","&lt;img src=Images\line.png&gt;"),F12,IF(G12="","","&lt;img src=Images\line.png&gt;"),G12,IF(H12="","","&lt;img src=Images\line.png&gt;"),H12,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b x 3&lt;img src=Images\line.png&gt;Beings may Climb for 3AP or jazzt &lt;img src=Images\line.png&gt;If a being falls of the cliff they take 8 damage&lt;img src=Images\line.png&gt;The pillar blocks line of sight for anyone on the low side</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E12,IF(F12="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F12,IF(G12="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G12,IF(H12="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H12,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b x 3&lt;Br&gt;lineBrk&lt;Br&gt;Beings may Climb for 3AP or jazzt.&lt;Br&gt;lineBrk&lt;Br&gt;If a being falls of the cliff they take 8 damage.&lt;Br&gt;lineBrk&lt;Br&gt;The pillar blocks line of sight for anyone on the low side.</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f aca="false">IF(C12="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="str">
-        <f aca="false">IF(C13="yes",_xlfn.CONCAT($N$2,E13,IF(F13="","","&lt;img src=Images\line.png&gt;"),F13,IF(G13="","","&lt;img src=Images\line.png&gt;"),G13,IF(H13="","","&lt;img src=Images\line.png&gt;"),H13,),_xlfn.CONCAT($M$2,E13,IF(F13="","","&lt;img src=Images\line.png&gt;"),F13,IF(G13="","","&lt;img src=Images\line.png&gt;"),G13,IF(H13="","","&lt;img src=Images\line.png&gt;"),H13,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;img src=Images\line.png&gt;&lt;i&gt;Ranged attack- &lt;/i&gt;&lt;b&gt;Fire!:3AP&lt;/b&gt;&lt;br&gt; The arbalest is must be loaded.&lt;br&gt; Damage = 8. &lt;br&gt;Hits everyone in a line&lt;img src=Images\line.png&gt;&lt;b&gt;Reload&lt;/b&gt; - 3AP + flesht flesht: reload the arbalest&lt;img src=Images\line.png&gt;Starts loaded</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="66.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.CONCAT($K$2,E13,IF(F13="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F13,IF(G13="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G13,IF(H13="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H13,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;&lt;i&gt;Ranged Attack - &lt;/i&gt;&lt;b&gt;Fire!:&lt;/b&gt; 3AP&lt;br&gt;The arbalest must be loaded. &lt;br&gt;Damage = 8. &lt;br&gt;Hits everyone in a line.&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Reload&lt;/b&gt; - 3AP + flesht flesht: &lt;Br&gt;Reload the arbalest.&lt;Br&gt;lineBrk&lt;Br&gt;Starts loaded.</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f aca="false">IF(C13="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="str">
-        <f aca="false">IF(C14="yes",_xlfn.CONCAT($N$2,E14,IF(F14="","","&lt;img src=Images\line.png&gt;"),F14,IF(G14="","","&lt;img src=Images\line.png&gt;"),G14,IF(H14="","","&lt;img src=Images\line.png&gt;"),H14,),_xlfn.CONCAT($M$2,E14,IF(F14="","","&lt;img src=Images\line.png&gt;"),F14,IF(G14="","","&lt;img src=Images\line.png&gt;"),G14,IF(H14="","","&lt;img src=Images\line.png&gt;"),H14,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;img src=Images\line.png&gt;Ending your turn next to the campfire restores all composure&lt;img src=Images\line.png&gt;If a being steps on the campfire they take 6 Armour Piercing damage and suffer the burning status&lt;img src=Images\line.png&gt;&lt;b&gt;Rest: 4AP&lt;/b&gt;&lt;br&gt;Gain the well rested status effect</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E14,IF(F14="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F14,IF(G14="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G14,IF(H14="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H14,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;Ending your turn next to the campfire restores all composure.&lt;Br&gt;lineBrk&lt;Br&gt;If a being steps on the campfire they take 6 Armour Piercing damage and suffer the burning status.&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Rest:&lt;/b&gt;  4AP&lt;br&gt;Gain the well rested status effect.</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f aca="false">IF(C14="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="9" t="str">
-        <f aca="false">IF(C15="yes",_xlfn.CONCAT($N$2,E15,IF(F15="","","&lt;img src=Images\line.png&gt;"),F15,IF(G15="","","&lt;img src=Images\line.png&gt;"),G15,IF(H15="","","&lt;img src=Images\line.png&gt;"),H15,),_xlfn.CONCAT($M$2,E15,IF(F15="","","&lt;img src=Images\line.png&gt;"),F15,IF(G15="","","&lt;img src=Images\line.png&gt;"),G15,IF(H15="","","&lt;img src=Images\line.png&gt;"),H15,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b&lt;img src=Images\line.png&gt;Spend 1 fleshT or 1AP to move through 1 hex&lt;img src=Images\line.png&gt;&lt;b&gt;Rummage: 1AP + fleshT fleshT&lt;/b&gt;&lt;br&gt; gain 1 limb or impression. This can only be done once</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E15,IF(F15="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F15,IF(G15="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G15,IF(H15="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H15,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b&lt;Br&gt;lineBrk&lt;Br&gt;Spend 1AP or fleshT to move through 1 hex.&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Rummage:&lt;/b&gt; 1AP + fleshT fleshT&lt;br&gt;Gain 1 limb or impression. This can only be done once.</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f aca="false">IF(C15="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="9" t="str">
-        <f aca="false">IF(C16="yes",_xlfn.CONCAT($N$2,E16,IF(F16="","","&lt;img src=Images\line.png&gt;"),F16,IF(G16="","","&lt;img src=Images\line.png&gt;"),G16,IF(H16="","","&lt;img src=Images\line.png&gt;"),H16,),_xlfn.CONCAT($M$2,E16,IF(F16="","","&lt;img src=Images\line.png&gt;"),F16,IF(G16="","","&lt;img src=Images\line.png&gt;"),G16,IF(H16="","","&lt;img src=Images\line.png&gt;"),H16,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;img src=Images\line.png&gt;&lt;b&gt;Ponder: 1AP + weirdT weirdT &lt;/b&gt;&lt;br&gt;Gain the portent status</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E16,IF(F16="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F16,IF(G16="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G16,IF(H16="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H16,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Ponder:&lt;/b&gt; 1AP + weirdT weirdT&lt;br&gt;Gain the portent status.</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f aca="false">IF(C16="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="9" t="str">
-        <f aca="false">IF(C17="yes",_xlfn.CONCAT($N$2,E17,IF(F17="","","&lt;img src=Images\line.png&gt;"),F17,IF(G17="","","&lt;img src=Images\line.png&gt;"),G17,IF(H17="","","&lt;img src=Images\line.png&gt;"),H17,),_xlfn.CONCAT($M$2,E17,IF(F17="","","&lt;img src=Images\line.png&gt;"),F17,IF(G17="","","&lt;img src=Images\line.png&gt;"),G17,IF(H17="","","&lt;img src=Images\line.png&gt;"),H17,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a x 2&lt;img src=Images\line.png&gt;&lt;b&gt;Jump: weirdT&lt;/b&gt;&lt;br&gt; Teleport to any unoccupied portal hex</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E17,IF(F17="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F17,IF(G17="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G17,IF(H17="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H17,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a x 2&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Jump:&lt;/b&gt; weirdT&lt;br&gt;Teleport to any unoccupied portal hex.</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f aca="false">IF(C17="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="9" t="str">
-        <f aca="false">IF(C18="yes",_xlfn.CONCAT($N$2,E18,IF(F18="","","&lt;img src=Images\line.png&gt;"),F18,IF(G18="","","&lt;img src=Images\line.png&gt;"),G18,IF(H18="","","&lt;img src=Images\line.png&gt;"),H18,),_xlfn.CONCAT($M$2,E18,IF(F18="","","&lt;img src=Images\line.png&gt;"),F18,IF(G18="","","&lt;img src=Images\line.png&gt;"),G18,IF(H18="","","&lt;img src=Images\line.png&gt;"),H18,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;img src=Images\line.png&gt;&lt;b&gt;Locked:&lt;/b&gt; This can be opened using the imbued status effect to look at 3 limbs or impressions and equip any number of them</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E18,IF(F18="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F18,IF(G18="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G18,IF(H18="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H18,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Locked:&lt;/b&gt; This can be opened using the imbued status effect to look at 3 limbs or impressions and equip any number of them.</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f aca="false">IF(C18="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="9" t="str">
-        <f aca="false">IF(C19="yes",_xlfn.CONCAT($N$2,E19,IF(F19="","","&lt;img src=Images\line.png&gt;"),F19,IF(G19="","","&lt;img src=Images\line.png&gt;"),G19,IF(H19="","","&lt;img src=Images\line.png&gt;"),H19,),_xlfn.CONCAT($M$2,E19,IF(F19="","","&lt;img src=Images\line.png&gt;"),F19,IF(G19="","","&lt;img src=Images\line.png&gt;"),G19,IF(H19="","","&lt;img src=Images\line.png&gt;"),H19,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;img src=Images\line.png&gt;&lt;b&gt;Drink: 3AP&lt;/b&gt; Restore 2 wounds and empty the fountain. It can’t be used again</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E19,IF(F19="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F19,IF(G19="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G19,IF(H19="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H19,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Drink:&lt;/b&gt; 3AP&lt;br&gt;Restore 2 wounds and empty the fountain. It cannot be used again.</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f aca="false">IF(C19="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="9" t="str">
-        <f aca="false">IF(C20="yes",_xlfn.CONCAT($N$2,E20,IF(F20="","","&lt;img src=Images\line.png&gt;"),F20,IF(G20="","","&lt;img src=Images\line.png&gt;"),G20,IF(H20="","","&lt;img src=Images\line.png&gt;"),H20,),_xlfn.CONCAT($M$2,E20,IF(F20="","","&lt;img src=Images\line.png&gt;"),F20,IF(G20="","","&lt;img src=Images\line.png&gt;"),G20,IF(H20="","","&lt;img src=Images\line.png&gt;"),H20,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b&lt;img src=Images\line.png&gt;Each hex may be &lt;br&gt;&lt;b&gt;Excavated: 3AP or 1 weirdT and 1AP&lt;/b&gt;&lt;br&gt; Replenish a spent charge token on a card and destroy that hex</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E20,IF(F20="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F20,IF(G20="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G20,IF(H20="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H20,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b&lt;Br&gt;lineBrk&lt;Br&gt;Each hex may be &lt;br&gt;&lt;b&gt;Excavated:&lt;/b&gt; 3AP or 1 weirdT + 1AP&lt;br&gt;Replenish a spent charge token on a card and destroy that hex.</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f aca="false">IF(C20="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="9" t="str">
-        <f aca="false">IF(C21="yes",_xlfn.CONCAT($N$2,E21,IF(F21="","","&lt;img src=Images\line.png&gt;"),F21,IF(G21="","","&lt;img src=Images\line.png&gt;"),G21,IF(H21="","","&lt;img src=Images\line.png&gt;"),H21,),_xlfn.CONCAT($M$2,E21,IF(F21="","","&lt;img src=Images\line.png&gt;"),F21,IF(G21="","","&lt;img src=Images\line.png&gt;"),G21,IF(H21="","","&lt;img src=Images\line.png&gt;"),H21,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;img src=Images\line.png&gt;&lt;b&gt;Sacrifice: 1AP + a wound to a stat of your choice&lt;/b&gt;&lt;br&gt; Draw an impression. You may equip it.</v>
+        <f aca="false">_xlfn.CONCAT($K$2,E21,IF(F21="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F21,IF(G21="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G21,IF(H21="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H21,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Sacrifice:&lt;/b&gt; 1AP + a wound to a stat of your choice&lt;br&gt;Draw an impression. You may equip it.</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f aca="false">IF(C21="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="9" t="str">
-        <f aca="false">IF(C22="yes",_xlfn.CONCAT($N$2,E22,IF(F22="","","&lt;img src=Images\line.png&gt;"),F22,IF(G22="","","&lt;img src=Images\line.png&gt;"),G22,IF(H22="","","&lt;img src=Images\line.png&gt;"),H22,),_xlfn.CONCAT($M$2,E22,IF(F22="","","&lt;img src=Images\line.png&gt;"),F22,IF(G22="","","&lt;img src=Images\line.png&gt;"),G22,IF(H22="","","&lt;img src=Images\line.png&gt;"),H22,))</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;img src=Images\line.png&gt;&lt;b&gt;Imbibe: 2AP + 1 weirdT&lt;/b&gt;&lt;br&gt; Destroy this and gain the Imbued status</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">_xlfn.CONCAT($K$2,E22,IF(F22="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F22,IF(G22="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G22,IF(H22="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H22,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Imbibe:&lt;/b&gt; 2AP + 1 weirdT&lt;br&gt;Destroy this and gain the Imbued status.</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f aca="false">IF(C22="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="9" t="str">
+        <f aca="false">_xlfn.CONCAT($K$2,E23,IF(F23="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F23,IF(G23="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G23,IF(H23="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H23,)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = 3 x Hex1a paintings that are at least 3 hexes apart from each other.&lt;br&gt;Cavepaint1&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Study:&lt;/b&gt; 1AP&lt;br&gt;Permanently gain a +1 damage bonus against the boss .&lt;Br&gt;lineBrk&lt;Br&gt;Each player can only study each painting once.</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f aca="false">IF(C23="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
@@ -1459,6 +1801,10 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="9"/>
+      <c r="K24" s="2" t="str">
+        <f aca="false">IF(C24="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
@@ -1471,6 +1817,10 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="9"/>
+      <c r="K25" s="2" t="str">
+        <f aca="false">IF(C25="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
@@ -1483,6 +1833,10 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="9"/>
+      <c r="K26" s="2" t="str">
+        <f aca="false">IF(C26="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
@@ -1495,6 +1849,10 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="9"/>
+      <c r="K27" s="2" t="str">
+        <f aca="false">IF(C27="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
@@ -1507,6 +1865,10 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="9"/>
+      <c r="K28" s="2" t="str">
+        <f aca="false">IF(C28="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
@@ -1519,6 +1881,10 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="9"/>
+      <c r="K29" s="2" t="str">
+        <f aca="false">IF(C29="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
@@ -1531,6 +1897,10 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="9"/>
+      <c r="K30" s="2" t="str">
+        <f aca="false">IF(C30="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
@@ -1543,6 +1913,10 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="9"/>
+      <c r="K31" s="2" t="str">
+        <f aca="false">IF(C31="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
@@ -1555,6 +1929,10 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="9"/>
+      <c r="K32" s="2" t="str">
+        <f aca="false">IF(C32="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
@@ -1567,6 +1945,10 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="9"/>
+      <c r="K33" s="2" t="str">
+        <f aca="false">IF(C33="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
@@ -1579,6 +1961,10 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="9"/>
+      <c r="K34" s="2" t="str">
+        <f aca="false">IF(C34="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
@@ -1591,6 +1977,10 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="9"/>
+      <c r="K35" s="2" t="str">
+        <f aca="false">IF(C35="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
@@ -1603,6 +1993,10 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="9"/>
+      <c r="K36" s="2" t="str">
+        <f aca="false">IF(C36="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
@@ -1615,6 +2009,10 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="9"/>
+      <c r="K37" s="2" t="str">
+        <f aca="false">IF(C37="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
@@ -1627,6 +2025,10 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="9"/>
+      <c r="K38" s="2" t="str">
+        <f aca="false">IF(C38="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
@@ -1639,6 +2041,10 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="9"/>
+      <c r="K39" s="2" t="str">
+        <f aca="false">IF(C39="yes",$M$3,$M$2)</f>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C39">
@@ -1668,6 +2074,282 @@
   <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.4765625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>614</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B3</f>
+        <v>1.324</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C3</f>
+        <v>1.228</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(" ",D3,$E$1,E3,$E$1,"PB")</f>
+        <v> 1.324, 1.228, PB</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B4</f>
+        <v>2.372</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C4</f>
+        <v>0.32</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(D4,$E$1,E4,$E$1,"PB")</f>
+        <v>2.372, 0.32, PB</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B5</f>
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C5</f>
+        <v>0.768</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(D5,$E$1,E5,$E$1,"PB")</f>
+        <v>0.8, 0.768, PB</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B6</f>
+        <v>0.276</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C6</f>
+        <v>0.32</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(D6,$E$1,E6,$E$1,"PB")</f>
+        <v>0.276, 0.32, PB</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B7</f>
+        <v>0.538</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C7</f>
+        <v>0.546</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(D7,$E$1,E7,$E$1,"PB")</f>
+        <v>0.538, 0.546, PB</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B8</f>
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C8</f>
+        <v>0.774</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(D8,$E$1,E8,$E$1,"PB")</f>
+        <v>0.8, 0.774, PB</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>613</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B9</f>
+        <v>1.324</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C9</f>
+        <v>1.226</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(D9,$E$1,E9,$E$1,"PB")</f>
+        <v>1.324, 1.226, PB</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B10</f>
+        <v>1.026</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C10</f>
+        <v>0.774</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(D10,$E$1,E10,$E$1,"PB")</f>
+        <v>1.026, 0.774, PB</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B11*2</f>
+        <v>1.068</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C11*2</f>
+        <v>0.564</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(D11,$E$1,E11,$E$1,"PB")</f>
+        <v>1.068, 0.564, PB</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>613</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">$D$1/$C$1*B12</f>
+        <v>1.324</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">$D$1/$C$1*C12</f>
+        <v>1.226</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(D12,$E$1,E12,$E$1,"PB")</f>
+        <v>1.324, 1.226, PB</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/SculptPrint4Terrain.xlsx
+++ b/SculptPrint4Terrain.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">Fire will cause the barrel to explode, dealing 8 damage to everything in a 2 hex radius. &lt;br&gt; whiskey_Xplo</t>
   </si>
   <si>
-    <t xml:space="preserve">Pillar</t>
+    <t xml:space="preserve">Three Pillars</t>
   </si>
   <si>
     <t xml:space="preserve">Shape = Hex1b x 3</t>
@@ -210,7 +210,10 @@
     <t xml:space="preserve">Beings may Climb for 3AP or jazzt.</t>
   </si>
   <si>
-    <t xml:space="preserve">The pillar blocks line of sight for anyone on the low side.</t>
+    <t xml:space="preserve">If a being falls of a pillar they take 8 damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pillars block line of sight for anyone on the low side.</t>
   </si>
   <si>
     <t xml:space="preserve">Fixed Arbalest</t>
@@ -249,12 +252,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Spend </t>
+      <t xml:space="preserve">Spend 1AP or </t>
     </r>
     <r>
       <rPr>
@@ -263,29 +265,18 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">1AP or </t>
+      <t xml:space="preserve">fleshT to move through 1 hex.</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">fleshT to move through 1 hex.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;Rummage:</t>
+      <t xml:space="preserve">&lt;b&gt;Rummage:&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -294,32 +285,21 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">&lt;/b&gt;</t>
+      <t xml:space="preserve"> 1AP + fleshT fleshT&lt;br&gt;Gain 1 limb or impression. This can only be done once.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartz Sphere</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 1AP + fleshT fleshT&lt;br&gt;Gain 1 limb or impression. This can only be done once.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Quartz Sphere</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;Ponder:</t>
+      <t xml:space="preserve">&lt;b&gt;Ponder:&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -328,35 +308,24 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">&lt;/b&gt;</t>
+      <t xml:space="preserve"> 1AP + weirdT weirdT&lt;br&gt;Gain the portent status.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape = Hex1a x 2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 1AP + weirdT weirdT&lt;br&gt;Gain the portent status.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape = Hex1a x 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;Jump:</t>
+      <t xml:space="preserve">&lt;b&gt;Jump:&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -365,50 +334,39 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">&lt;/b&gt;</t>
+      <t xml:space="preserve"> weirdT&lt;br&gt;Teleport to any unoccupied portal hex.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sculpting wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Locked:&lt;/b&gt; This can be opened using the imbued status effect to look at 3 limbs or impressions and equip any number of them. Then destroy this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fountain of life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Drink:&lt;/b&gt; 3AP&lt;br&gt;Restore 2 wounds and empty the fountain. It cannot be used again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weird Fossil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each hex may be &lt;br&gt;&lt;b&gt;Excavated:&lt;/b&gt; 3AP or weirdT + 1AP&lt;br&gt;Replenish a spent charge token on a card and destroy that hex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stained Stalagmite</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> weirdT&lt;br&gt;Teleport to any unoccupied portal hex.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sculpting wheel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Locked:&lt;/b&gt; This can be opened using the imbued status effect to look at 3 limbs or impressions and equip any number of them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fountain of life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Drink:&lt;/b&gt; 3AP&lt;br&gt;Restore 2 wounds and empty the fountain. It cannot be used again.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weird Fossil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each hex may be &lt;br&gt;&lt;b&gt;Excavated:&lt;/b&gt; 3AP or 1 weirdT + 1AP&lt;br&gt;Replenish a spent charge token on a card and destroy that hex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stained Stalagmite</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;Sacrifice:</t>
+      <t xml:space="preserve">&lt;b&gt;Sacrifice:&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -417,32 +375,21 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">&lt;/b&gt;</t>
+      <t xml:space="preserve"> 1AP + a wound to a stat of your choice&lt;br&gt;Draw an impression. You may equip it.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure Clay</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 1AP + a wound to a stat of your choice&lt;br&gt;Draw an impression. You may equip it.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Pure Clay</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;Imbibe:</t>
+      <t xml:space="preserve">&lt;b&gt;Imbibe:&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -451,7 +398,24 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">&lt;/b&gt;</t>
+      <t xml:space="preserve"> 2AP + 1 weirdT&lt;br&gt;Destroy this and gain the Imbued status.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave Paintings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape = 3 x Hex1a paintings that are at least 3 hexes apart from each other.&lt;br&gt;Cavepaint1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;Study:&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -459,44 +423,6 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2AP + 1 weirdT&lt;br&gt;Destroy this and gain the Imbued status.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Cave Paintings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape = 3 x Hex1a paintings that are at least 3 hexes apart from each other.&lt;br&gt;Cavepaint1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;Study:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 1AP&lt;br&gt;Permanently gain a +1 damage bonus against the boss .</t>
     </r>
@@ -551,7 +477,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -570,21 +495,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -680,7 +603,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -722,6 +645,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,6 +710,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFF6B0DD"/>
@@ -790,6 +723,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFE699"/>
@@ -797,6 +736,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFF8CBAD"/>
@@ -804,6 +749,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6E0B4"/>
@@ -811,6 +762,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB4C6E7"/>
@@ -942,14 +899,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -957,67 +914,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1036,35 +951,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1078,8 +969,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1448,7 +1339,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
@@ -1466,15 +1357,15 @@
         <v>60</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="9" t="str">
         <f aca="false">_xlfn.CONCAT($K$2,E12,IF(F12="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F12,IF(G12="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G12,IF(H12="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H12,)</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b x 3&lt;Br&gt;lineBrk&lt;Br&gt;Beings may Climb for 3AP or jazzt.&lt;Br&gt;lineBrk&lt;Br&gt;If a being falls of the cliff they take 8 damage.&lt;Br&gt;lineBrk&lt;Br&gt;The pillar blocks line of sight for anyone on the low side.</v>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b x 3&lt;Br&gt;lineBrk&lt;Br&gt;Beings may Climb for 3AP or jazzt.&lt;Br&gt;lineBrk&lt;Br&gt;If a being falls of a pillar they take 8 damage.&lt;Br&gt;lineBrk&lt;Br&gt;Pillars block line of sight for anyone on the low side.</v>
       </c>
       <c r="K12" s="2" t="str">
         <f aca="false">IF(C12="yes",$M$3,$M$2)</f>
@@ -1483,10 +1374,10 @@
     </row>
     <row r="13" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6"/>
@@ -1494,13 +1385,13 @@
         <v>55</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="str">
@@ -1514,10 +1405,10 @@
     </row>
     <row r="14" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
@@ -1525,13 +1416,13 @@
         <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="str">
@@ -1545,21 +1436,21 @@
     </row>
     <row r="15" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1574,18 +1465,18 @@
     </row>
     <row r="16" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>76</v>
+      <c r="F16" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1601,18 +1492,18 @@
     </row>
     <row r="17" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="6" t="s">
         <v>79</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1626,12 +1517,12 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="66.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
@@ -1639,14 +1530,14 @@
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="9" t="str">
         <f aca="false">_xlfn.CONCAT($K$2,E18,IF(F18="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F18,IF(G18="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G18,IF(H18="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H18,)</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Locked:&lt;/b&gt; This can be opened using the imbued status effect to look at 3 limbs or impressions and equip any number of them.</v>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1a&lt;Br&gt;lineBrk&lt;Br&gt;&lt;b&gt;Locked:&lt;/b&gt; This can be opened using the imbued status effect to look at 3 limbs or impressions and equip any number of them. Then destroy this</v>
       </c>
       <c r="K18" s="2" t="str">
         <f aca="false">IF(C18="yes",$M$3,$M$2)</f>
@@ -1655,10 +1546,10 @@
     </row>
     <row r="19" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="6"/>
@@ -1666,7 +1557,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1682,25 +1573,25 @@
     </row>
     <row r="20" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="9" t="str">
         <f aca="false">_xlfn.CONCAT($K$2,E20,IF(F20="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),F20,IF(G20="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),G20,IF(H20="","","&lt;Br&gt;lineBrk&lt;Br&gt;"),H20,)</f>
-        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b&lt;Br&gt;lineBrk&lt;Br&gt;Each hex may be &lt;br&gt;&lt;b&gt;Excavated:&lt;/b&gt; 3AP or 1 weirdT + 1AP&lt;br&gt;Replenish a spent charge token on a card and destroy that hex.</v>
+        <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;Shape = Hex1b&lt;Br&gt;lineBrk&lt;Br&gt;Each hex may be &lt;br&gt;&lt;b&gt;Excavated:&lt;/b&gt; 3AP or weirdT + 1AP&lt;br&gt;Replenish a spent charge token on a card and destroy that hex.</v>
       </c>
       <c r="K20" s="2" t="str">
         <f aca="false">IF(C20="yes",$M$3,$M$2)</f>
@@ -1709,18 +1600,18 @@
     </row>
     <row r="21" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>87</v>
+      <c r="F21" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1736,18 +1627,18 @@
     </row>
     <row r="22" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>89</v>
+      <c r="F22" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1763,21 +1654,21 @@
     </row>
     <row r="23" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="G23" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1790,7 +1681,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1806,7 +1697,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1822,7 +1713,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1838,7 +1729,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1854,7 +1745,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1870,7 +1761,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1886,7 +1777,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1902,7 +1793,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1918,7 +1809,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1934,7 +1825,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1950,7 +1841,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1966,7 +1857,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1982,7 +1873,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1998,7 +1889,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2014,7 +1905,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2030,7 +1921,7 @@
         <v>&lt;p style="font-size:14px;"&gt;&lt;br&gt;</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2092,7 +1983,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>160</v>
@@ -2101,13 +1992,13 @@
         <v>0.32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>662</v>
@@ -2130,7 +2021,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1186</v>
@@ -2153,7 +2044,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>400</v>
@@ -2176,7 +2067,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>138</v>
@@ -2199,7 +2090,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>269</v>
@@ -2222,7 +2113,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>400</v>
@@ -2245,7 +2136,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>662</v>
@@ -2268,7 +2159,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>513</v>
@@ -2314,7 +2205,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>662</v>
@@ -2335,6 +2226,7 @@
         <v>1.324, 1.226, PB</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2344,194 +2236,11 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B72EB742E1A5654587064A46DDB6CD15" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e55e2f9787318b7f716360a3e6de5d16">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d3d2b77b-9d76-4307-b430-cfd0491e2700" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c7964d0f203b5786a93e8b285789b37" ns3:_="">
-    <xsd:import namespace="d3d2b77b-9d76-4307-b430-cfd0491e2700"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d3d2b77b-9d76-4307-b430-cfd0491e2700" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBD9A44-7659-4E3D-A8AD-0FE8F40955ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9C2C9E0-1F0F-46F6-8F71-1762C6A86D23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d3d2b77b-9d76-4307-b430-cfd0491e2700"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE2D555B-6F02-459E-B070-D7B6B8E41DF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d3d2b77b-9d76-4307-b430-cfd0491e2700"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>